--- a/biology/Zoologie/Comanthus/Comanthus.xlsx
+++ b/biology/Zoologie/Comanthus/Comanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comanthus est un genre de crinoïde de la famille des Comasteridae (ordre des Comatulida).
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces comatules ont jusqu'à 75 bras, et une bouche excentrée à la maturité. Le centrodorsal est circulaire à pentagonal, portant une rangée de cirrhes clairsemée ou pas du tout. Les pinnules orales portent des dents formant un peigne[2]. 
-Ce genre est répandu dans les océans Indien et Pacifique[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces comatules ont jusqu'à 75 bras, et une bouche excentrée à la maturité. Le centrodorsal est circulaire à pentagonal, portant une rangée de cirrhes clairsemée ou pas du tout. Les pinnules orales portent des dents formant un peigne. 
+Ce genre est répandu dans les océans Indien et Pacifique. 
 			Spécimen de Comanthus wahlbergii, face orale.
 			Face aborale.
 			Comanthus parvicirrus
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (14 avril 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (14 avril 2015) :
 Comanthus briareus (Bell, 1882) -- Pacifique ouest (6-620 m de profondeur)
 Comanthus delicata (AH Clark, 1909) -- Pacifique ouest
 Comanthus gisleni Rowe, Hoggett, Birtles &amp; Vail, 1986 -- Indo-Pacifique tropical (0-32 m de profondeur)
